--- a/xlsx/人民出版社_intext.xlsx
+++ b/xlsx/人民出版社_intext.xlsx
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%83%A8%E5%8F%83%E8%80%83</t>
   </si>
   <si>
-    <t>內部參考</t>
+    <t>内部参考</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%83%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>內部書</t>
+    <t>内部书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E6%81%A9%E6%A0%BC%E6%96%AF%E9%81%B8%E9%9B%86</t>
   </si>
   <si>
-    <t>馬克思恩格斯選集</t>
+    <t>马克思恩格斯选集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
+    <t>列宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%85%9A%E5%92%8C%E5%9B%BD%E5%AE%B6%E9%A2%86%E5%AF%BC%E4%BA%BA%E8%91%97%E4%BD%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中华人民共和国党和国家领导人著作列表</t>
+    <t>中华人民共和国党和国家领导人着作列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E4%B8%BB%E5%B8%AD%E8%AF%AD%E5%BD%95</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%B0%91%E5%A5%87</t>
   </si>
   <si>
-    <t>劉少奇</t>
+    <t>刘少奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%81%A9%E4%BE%86</t>
   </si>
   <si>
-    <t>周恩來</t>
+    <t>周恩来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%BE%B7</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%9B%B2</t>
   </si>
   <si>
-    <t>陳雲</t>
+    <t>陈云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%A7%E7%A9%8E%E8%B6%85</t>
   </si>
   <si>
-    <t>鄧穎超</t>
+    <t>邓颖超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%84%E4%B8%80%E6%B3%A2</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E5%8A%8D%E9%9B%84</t>
   </si>
   <si>
-    <t>葛劍雄</t>
+    <t>葛剑雄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E5%88%8A</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%B0%88%E6%A1%88%E7%B5%84</t>
   </si>
   <si>
-    <t>中央專案組</t>
+    <t>中央专案组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%9C%B0%E6%96%B9%E7%97%85%E9%98%B2%E6%B2%BB%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%97%E6%A9%9F%E5%99%A8%E8%A3%BD%E9%80%A0%E7%B8%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>江南機器製造總局</t>
+    <t>江南机器制造总局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%8F%91%E6%B4%8B%E8%A1%8C</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%B8%82_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>上海市 (中華民國)</t>
+    <t>上海市 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%B9%A6%E5%B1%80</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E7%A4%BE</t>
   </si>
   <si>
-    <t>復社</t>
+    <t>复社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%B8%96%E7%BA%AA%E5%87%BA%E7%89%88%E9%9B%86%E5%9B%A2</t>
@@ -7198,7 +7198,7 @@
         <v>348</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
